--- a/cites_list.xlsx
+++ b/cites_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD63BED7-B337-9349-95BD-1912E50879CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D535A09-259C-DB4D-92D4-A2745A2B85F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7820" yWindow="760" windowWidth="21180" windowHeight="17060" xr2:uid="{3910AC6C-398B-5641-A261-4AC5E77A0DDB}"/>
+    <workbookView xWindow="-29020" yWindow="-380" windowWidth="21180" windowHeight="17060" xr2:uid="{3910AC6C-398B-5641-A261-4AC5E77A0DDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3814" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3814" uniqueCount="356">
   <si>
     <t>species</t>
   </si>
@@ -1101,6 +1101,9 @@
   </si>
   <si>
     <t>TOTAL SAMPLES</t>
+  </si>
+  <si>
+    <t>Dry shipper or dry ice</t>
   </si>
 </sst>
 </file>
@@ -1196,9 +1199,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1236,7 +1239,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1342,7 +1345,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1484,7 +1487,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1494,9 +1497,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B8E095-94BA-A842-9ABD-01710D83669F}">
   <dimension ref="A1:M577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I288" sqref="I288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5128,7 +5131,7 @@
         <v>148</v>
       </c>
       <c r="G153" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
@@ -5151,7 +5154,7 @@
         <v>148</v>
       </c>
       <c r="G154" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
@@ -5174,7 +5177,7 @@
         <v>148</v>
       </c>
       <c r="G155" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
@@ -5197,7 +5200,7 @@
         <v>148</v>
       </c>
       <c r="G156" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
@@ -5220,7 +5223,7 @@
         <v>148</v>
       </c>
       <c r="G157" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
@@ -5243,7 +5246,7 @@
         <v>148</v>
       </c>
       <c r="G158" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
@@ -5266,7 +5269,7 @@
         <v>148</v>
       </c>
       <c r="G159" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
@@ -5289,7 +5292,7 @@
         <v>148</v>
       </c>
       <c r="G160" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -5312,7 +5315,7 @@
         <v>148</v>
       </c>
       <c r="G161" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
@@ -5335,7 +5338,7 @@
         <v>148</v>
       </c>
       <c r="G162" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
@@ -5358,7 +5361,7 @@
         <v>148</v>
       </c>
       <c r="G163" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
@@ -5381,7 +5384,7 @@
         <v>148</v>
       </c>
       <c r="G164" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
@@ -5404,7 +5407,7 @@
         <v>148</v>
       </c>
       <c r="G165" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
@@ -5427,7 +5430,7 @@
         <v>148</v>
       </c>
       <c r="G166" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
@@ -5450,7 +5453,7 @@
         <v>148</v>
       </c>
       <c r="G167" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
@@ -5473,7 +5476,7 @@
         <v>148</v>
       </c>
       <c r="G168" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
@@ -5496,7 +5499,7 @@
         <v>148</v>
       </c>
       <c r="G169" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
@@ -5519,7 +5522,7 @@
         <v>148</v>
       </c>
       <c r="G170" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
@@ -5542,7 +5545,7 @@
         <v>148</v>
       </c>
       <c r="G171" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
@@ -5565,7 +5568,7 @@
         <v>148</v>
       </c>
       <c r="G172" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -5588,7 +5591,7 @@
         <v>148</v>
       </c>
       <c r="G173" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
@@ -5611,7 +5614,7 @@
         <v>148</v>
       </c>
       <c r="G174" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -5634,7 +5637,7 @@
         <v>148</v>
       </c>
       <c r="G175" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
@@ -5657,7 +5660,7 @@
         <v>148</v>
       </c>
       <c r="G176" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
@@ -5680,7 +5683,7 @@
         <v>148</v>
       </c>
       <c r="G177" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
@@ -5703,7 +5706,7 @@
         <v>148</v>
       </c>
       <c r="G178" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
@@ -5726,7 +5729,7 @@
         <v>148</v>
       </c>
       <c r="G179" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
@@ -5749,7 +5752,7 @@
         <v>148</v>
       </c>
       <c r="G180" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
@@ -5772,7 +5775,7 @@
         <v>148</v>
       </c>
       <c r="G181" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
@@ -5795,7 +5798,7 @@
         <v>148</v>
       </c>
       <c r="G182" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
@@ -5818,7 +5821,7 @@
         <v>148</v>
       </c>
       <c r="G183" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
@@ -5841,7 +5844,7 @@
         <v>148</v>
       </c>
       <c r="G184" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
@@ -5864,7 +5867,7 @@
         <v>148</v>
       </c>
       <c r="G185" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
@@ -5887,7 +5890,7 @@
         <v>148</v>
       </c>
       <c r="G186" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
@@ -5910,7 +5913,7 @@
         <v>148</v>
       </c>
       <c r="G187" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
@@ -5933,7 +5936,7 @@
         <v>148</v>
       </c>
       <c r="G188" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
@@ -5956,7 +5959,7 @@
         <v>148</v>
       </c>
       <c r="G189" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
@@ -5979,7 +5982,7 @@
         <v>148</v>
       </c>
       <c r="G190" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
@@ -6002,7 +6005,7 @@
         <v>148</v>
       </c>
       <c r="G191" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
@@ -6025,7 +6028,7 @@
         <v>148</v>
       </c>
       <c r="G192" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
@@ -6048,7 +6051,7 @@
         <v>148</v>
       </c>
       <c r="G193" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
@@ -6071,7 +6074,7 @@
         <v>148</v>
       </c>
       <c r="G194" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
@@ -6094,7 +6097,7 @@
         <v>148</v>
       </c>
       <c r="G195" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
@@ -6117,7 +6120,7 @@
         <v>148</v>
       </c>
       <c r="G196" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
@@ -6140,7 +6143,7 @@
         <v>148</v>
       </c>
       <c r="G197" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
@@ -6163,7 +6166,7 @@
         <v>148</v>
       </c>
       <c r="G198" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
@@ -6186,7 +6189,7 @@
         <v>148</v>
       </c>
       <c r="G199" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
@@ -6209,7 +6212,7 @@
         <v>148</v>
       </c>
       <c r="G200" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
@@ -6232,7 +6235,7 @@
         <v>148</v>
       </c>
       <c r="G201" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
@@ -6255,7 +6258,7 @@
         <v>148</v>
       </c>
       <c r="G202" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
@@ -6278,7 +6281,7 @@
         <v>148</v>
       </c>
       <c r="G203" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
@@ -6301,7 +6304,7 @@
         <v>148</v>
       </c>
       <c r="G204" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
@@ -6324,7 +6327,7 @@
         <v>148</v>
       </c>
       <c r="G205" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
@@ -6347,7 +6350,7 @@
         <v>148</v>
       </c>
       <c r="G206" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
@@ -6370,7 +6373,7 @@
         <v>148</v>
       </c>
       <c r="G207" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
@@ -6393,7 +6396,7 @@
         <v>148</v>
       </c>
       <c r="G208" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
@@ -6416,7 +6419,7 @@
         <v>148</v>
       </c>
       <c r="G209" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
@@ -6439,7 +6442,7 @@
         <v>148</v>
       </c>
       <c r="G210" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
@@ -6462,7 +6465,7 @@
         <v>148</v>
       </c>
       <c r="G211" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
@@ -6485,7 +6488,7 @@
         <v>148</v>
       </c>
       <c r="G212" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
@@ -6508,7 +6511,7 @@
         <v>148</v>
       </c>
       <c r="G213" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
@@ -6531,7 +6534,7 @@
         <v>148</v>
       </c>
       <c r="G214" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
@@ -6554,7 +6557,7 @@
         <v>148</v>
       </c>
       <c r="G215" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
@@ -6577,7 +6580,7 @@
         <v>148</v>
       </c>
       <c r="G216" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
@@ -6600,7 +6603,7 @@
         <v>148</v>
       </c>
       <c r="G217" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
@@ -6623,7 +6626,7 @@
         <v>148</v>
       </c>
       <c r="G218" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
@@ -6646,7 +6649,7 @@
         <v>148</v>
       </c>
       <c r="G219" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
@@ -6669,7 +6672,7 @@
         <v>148</v>
       </c>
       <c r="G220" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
@@ -6692,7 +6695,7 @@
         <v>148</v>
       </c>
       <c r="G221" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
@@ -6715,7 +6718,7 @@
         <v>148</v>
       </c>
       <c r="G222" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
@@ -6738,7 +6741,7 @@
         <v>148</v>
       </c>
       <c r="G223" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
@@ -6761,7 +6764,7 @@
         <v>148</v>
       </c>
       <c r="G224" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
@@ -6784,7 +6787,7 @@
         <v>148</v>
       </c>
       <c r="G225" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
@@ -6807,7 +6810,7 @@
         <v>148</v>
       </c>
       <c r="G226" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
@@ -6830,7 +6833,7 @@
         <v>148</v>
       </c>
       <c r="G227" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
@@ -6853,7 +6856,7 @@
         <v>148</v>
       </c>
       <c r="G228" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
@@ -6876,7 +6879,7 @@
         <v>148</v>
       </c>
       <c r="G229" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
@@ -6899,7 +6902,7 @@
         <v>148</v>
       </c>
       <c r="G230" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
@@ -6922,7 +6925,7 @@
         <v>148</v>
       </c>
       <c r="G231" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
@@ -6945,7 +6948,7 @@
         <v>148</v>
       </c>
       <c r="G232" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
@@ -6968,7 +6971,7 @@
         <v>148</v>
       </c>
       <c r="G233" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
@@ -6991,7 +6994,7 @@
         <v>148</v>
       </c>
       <c r="G234" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
@@ -7014,7 +7017,7 @@
         <v>148</v>
       </c>
       <c r="G235" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
@@ -7037,7 +7040,7 @@
         <v>148</v>
       </c>
       <c r="G236" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
@@ -7060,7 +7063,7 @@
         <v>148</v>
       </c>
       <c r="G237" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
@@ -7083,7 +7086,7 @@
         <v>148</v>
       </c>
       <c r="G238" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
@@ -7106,7 +7109,7 @@
         <v>148</v>
       </c>
       <c r="G239" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
@@ -7129,7 +7132,7 @@
         <v>148</v>
       </c>
       <c r="G240" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
@@ -7152,7 +7155,7 @@
         <v>148</v>
       </c>
       <c r="G241" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
@@ -7175,7 +7178,7 @@
         <v>148</v>
       </c>
       <c r="G242" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
@@ -7198,7 +7201,7 @@
         <v>148</v>
       </c>
       <c r="G243" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
@@ -7221,7 +7224,7 @@
         <v>148</v>
       </c>
       <c r="G244" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
@@ -7244,7 +7247,7 @@
         <v>148</v>
       </c>
       <c r="G245" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
@@ -7267,7 +7270,7 @@
         <v>148</v>
       </c>
       <c r="G246" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
@@ -7290,7 +7293,7 @@
         <v>148</v>
       </c>
       <c r="G247" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
@@ -7313,7 +7316,7 @@
         <v>148</v>
       </c>
       <c r="G248" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
@@ -7336,7 +7339,7 @@
         <v>148</v>
       </c>
       <c r="G249" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
@@ -7359,7 +7362,7 @@
         <v>148</v>
       </c>
       <c r="G250" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
@@ -7382,7 +7385,7 @@
         <v>148</v>
       </c>
       <c r="G251" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
@@ -7405,7 +7408,7 @@
         <v>148</v>
       </c>
       <c r="G252" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
@@ -7428,7 +7431,7 @@
         <v>148</v>
       </c>
       <c r="G253" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
@@ -7451,7 +7454,7 @@
         <v>148</v>
       </c>
       <c r="G254" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
@@ -7474,7 +7477,7 @@
         <v>148</v>
       </c>
       <c r="G255" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
@@ -7497,7 +7500,7 @@
         <v>148</v>
       </c>
       <c r="G256" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
@@ -7520,7 +7523,7 @@
         <v>148</v>
       </c>
       <c r="G257" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
@@ -7543,7 +7546,7 @@
         <v>148</v>
       </c>
       <c r="G258" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
@@ -7566,7 +7569,7 @@
         <v>148</v>
       </c>
       <c r="G259" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
@@ -7589,7 +7592,7 @@
         <v>148</v>
       </c>
       <c r="G260" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
@@ -7612,7 +7615,7 @@
         <v>148</v>
       </c>
       <c r="G261" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
@@ -7635,7 +7638,7 @@
         <v>148</v>
       </c>
       <c r="G262" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
@@ -7658,7 +7661,7 @@
         <v>148</v>
       </c>
       <c r="G263" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
@@ -7681,7 +7684,7 @@
         <v>148</v>
       </c>
       <c r="G264" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
@@ -7704,7 +7707,7 @@
         <v>148</v>
       </c>
       <c r="G265" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
@@ -7727,7 +7730,7 @@
         <v>148</v>
       </c>
       <c r="G266" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
@@ -7750,7 +7753,7 @@
         <v>148</v>
       </c>
       <c r="G267" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
@@ -7773,7 +7776,7 @@
         <v>148</v>
       </c>
       <c r="G268" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
@@ -7796,7 +7799,7 @@
         <v>148</v>
       </c>
       <c r="G269" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
@@ -7819,7 +7822,7 @@
         <v>148</v>
       </c>
       <c r="G270" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
@@ -7842,7 +7845,7 @@
         <v>148</v>
       </c>
       <c r="G271" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
@@ -7865,7 +7868,7 @@
         <v>148</v>
       </c>
       <c r="G272" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
@@ -7888,7 +7891,7 @@
         <v>148</v>
       </c>
       <c r="G273" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
@@ -7911,7 +7914,7 @@
         <v>148</v>
       </c>
       <c r="G274" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
@@ -7934,7 +7937,7 @@
         <v>148</v>
       </c>
       <c r="G275" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
@@ -7957,7 +7960,7 @@
         <v>148</v>
       </c>
       <c r="G276" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
@@ -7980,7 +7983,7 @@
         <v>148</v>
       </c>
       <c r="G277" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
@@ -8003,7 +8006,7 @@
         <v>148</v>
       </c>
       <c r="G278" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
@@ -8026,7 +8029,7 @@
         <v>148</v>
       </c>
       <c r="G279" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
@@ -8049,7 +8052,7 @@
         <v>148</v>
       </c>
       <c r="G280" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
@@ -8072,7 +8075,7 @@
         <v>148</v>
       </c>
       <c r="G281" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
@@ -8095,7 +8098,7 @@
         <v>148</v>
       </c>
       <c r="G282" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
@@ -8118,7 +8121,7 @@
         <v>148</v>
       </c>
       <c r="G283" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
@@ -8141,7 +8144,7 @@
         <v>148</v>
       </c>
       <c r="G284" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">

--- a/cites_list.xlsx
+++ b/cites_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36F6FE9-B33A-A149-8AF8-C85873B88CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E72609-CC0F-FD4C-850C-82E869CBAAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="760" windowWidth="29240" windowHeight="17720" xr2:uid="{3910AC6C-398B-5641-A261-4AC5E77A0DDB}"/>
   </bookViews>
@@ -1518,7 +1518,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="B532" sqref="B532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/cites_list.xlsx
+++ b/cites_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E72609-CC0F-FD4C-850C-82E869CBAAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093D6272-6E0B-7043-85AF-1FC3F8D99CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="760" windowWidth="29240" windowHeight="17720" xr2:uid="{3910AC6C-398B-5641-A261-4AC5E77A0DDB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4691" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4696" uniqueCount="365">
   <si>
     <t>species</t>
   </si>
@@ -1122,6 +1122,15 @@
   </si>
   <si>
     <t>LEFT TO SHIP AS OF NOV 2024</t>
+  </si>
+  <si>
+    <t>To transport (all frozen)</t>
+  </si>
+  <si>
+    <t>ACR 2022 M1 box</t>
+  </si>
+  <si>
+    <t>ACR 2022 M2 box</t>
   </si>
 </sst>
 </file>
@@ -1193,13 +1202,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1514,11 +1524,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B8E095-94BA-A842-9ABD-01710D83669F}">
-  <dimension ref="A1:M577"/>
+  <dimension ref="A1:O577"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B532" sqref="B532"/>
+      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1532,7 +1542,7 @@
     <col min="15" max="15" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1561,7 +1571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -1595,7 +1605,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>156</v>
       </c>
@@ -1632,8 +1642,11 @@
       <c r="M3" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O3" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>156</v>
       </c>
@@ -1670,8 +1683,11 @@
       <c r="M4" s="3">
         <v>132</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>156</v>
       </c>
@@ -1706,8 +1722,11 @@
       <c r="M5" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>156</v>
       </c>
@@ -1742,8 +1761,11 @@
       <c r="M6" s="3">
         <v>81</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>156</v>
       </c>
@@ -1778,8 +1800,11 @@
       <c r="M7" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -1811,7 +1836,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>156</v>
       </c>
@@ -1849,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>156</v>
       </c>
@@ -1885,7 +1910,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>156</v>
       </c>
@@ -1921,7 +1946,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>156</v>
       </c>
@@ -1953,7 +1978,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>156</v>
       </c>
@@ -1991,7 +2016,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>156</v>
       </c>
@@ -2027,7 +2052,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>156</v>
       </c>
@@ -2063,7 +2088,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>156</v>
       </c>

--- a/cites_list.xlsx
+++ b/cites_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B144ED77-8C20-FC49-9407-6C424ED317E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C07CFBE-3D2C-2343-9DBD-91AE62213722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="760" windowWidth="29240" windowHeight="17720" xr2:uid="{3910AC6C-398B-5641-A261-4AC5E77A0DDB}"/>
+    <workbookView xWindow="-33740" yWindow="-1460" windowWidth="29240" windowHeight="17720" xr2:uid="{3910AC6C-398B-5641-A261-4AC5E77A0DDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4696" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4994" uniqueCount="367">
   <si>
     <t>species</t>
   </si>
@@ -1131,6 +1131,12 @@
   </si>
   <si>
     <t>ACR 2022 M2 box</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Feb 5 2024</t>
   </si>
 </sst>
 </file>
@@ -1161,18 +1167,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1202,14 +1202,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1524,11 +1522,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B8E095-94BA-A842-9ABD-01710D83669F}">
-  <dimension ref="A1:O577"/>
+  <dimension ref="A1:Q577"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A540" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A518" sqref="A518:A577"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1593,7 +1591,9 @@
       <c r="G2" t="s">
         <v>355</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I2" t="s">
         <v>150</v>
       </c>
@@ -1623,7 +1623,9 @@
       <c r="G3" t="s">
         <v>355</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I3" t="s">
         <v>150</v>
       </c>
@@ -1653,7 +1655,9 @@
       <c r="G4" t="s">
         <v>355</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I4" t="s">
         <v>150</v>
       </c>
@@ -1683,7 +1687,9 @@
       <c r="G5" t="s">
         <v>355</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I5" t="s">
         <v>150</v>
       </c>
@@ -1713,7 +1719,9 @@
       <c r="G6" t="s">
         <v>355</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I6" t="s">
         <v>150</v>
       </c>
@@ -1743,7 +1751,9 @@
       <c r="G7" t="s">
         <v>355</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I7" t="s">
         <v>150</v>
       </c>
@@ -1773,7 +1783,9 @@
       <c r="G8" t="s">
         <v>355</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I8" t="s">
         <v>150</v>
       </c>
@@ -1803,7 +1815,9 @@
       <c r="G9" t="s">
         <v>355</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I9" t="s">
         <v>150</v>
       </c>
@@ -1833,7 +1847,9 @@
       <c r="G10" t="s">
         <v>355</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I10" t="s">
         <v>150</v>
       </c>
@@ -1863,7 +1879,9 @@
       <c r="G11" t="s">
         <v>355</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I11" t="s">
         <v>150</v>
       </c>
@@ -1893,7 +1911,9 @@
       <c r="G12" t="s">
         <v>355</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I12" t="s">
         <v>150</v>
       </c>
@@ -1923,7 +1943,9 @@
       <c r="G13" t="s">
         <v>355</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I13" t="s">
         <v>150</v>
       </c>
@@ -1953,7 +1975,9 @@
       <c r="G14" t="s">
         <v>355</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I14" t="s">
         <v>150</v>
       </c>
@@ -1983,7 +2007,9 @@
       <c r="G15" t="s">
         <v>355</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I15" t="s">
         <v>150</v>
       </c>
@@ -2013,7 +2039,9 @@
       <c r="G16" t="s">
         <v>355</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I16" t="s">
         <v>150</v>
       </c>
@@ -2040,7 +2068,9 @@
       <c r="G17" t="s">
         <v>355</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I17" t="s">
         <v>150</v>
       </c>
@@ -2067,7 +2097,9 @@
       <c r="G18" t="s">
         <v>355</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I18" t="s">
         <v>150</v>
       </c>
@@ -2094,7 +2126,9 @@
       <c r="G19" t="s">
         <v>355</v>
       </c>
-      <c r="H19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I19" t="s">
         <v>150</v>
       </c>
@@ -2121,7 +2155,9 @@
       <c r="G20" t="s">
         <v>355</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I20" t="s">
         <v>150</v>
       </c>
@@ -2148,7 +2184,9 @@
       <c r="G21" t="s">
         <v>355</v>
       </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I21" t="s">
         <v>150</v>
       </c>
@@ -2178,7 +2216,9 @@
       <c r="G22" t="s">
         <v>355</v>
       </c>
-      <c r="H22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I22" t="s">
         <v>150</v>
       </c>
@@ -2208,7 +2248,9 @@
       <c r="G23" t="s">
         <v>355</v>
       </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I23" t="s">
         <v>150</v>
       </c>
@@ -2238,7 +2280,9 @@
       <c r="G24" t="s">
         <v>355</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I24" t="s">
         <v>150</v>
       </c>
@@ -2268,7 +2312,9 @@
       <c r="G25" t="s">
         <v>355</v>
       </c>
-      <c r="H25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I25" t="s">
         <v>150</v>
       </c>
@@ -2298,7 +2344,9 @@
       <c r="G26" t="s">
         <v>355</v>
       </c>
-      <c r="H26" s="4"/>
+      <c r="H26" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I26" t="s">
         <v>150</v>
       </c>
@@ -2328,7 +2376,9 @@
       <c r="G27" t="s">
         <v>355</v>
       </c>
-      <c r="H27" s="4"/>
+      <c r="H27" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I27" t="s">
         <v>150</v>
       </c>
@@ -2358,7 +2408,9 @@
       <c r="G28" t="s">
         <v>355</v>
       </c>
-      <c r="H28" s="4"/>
+      <c r="H28" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I28" t="s">
         <v>150</v>
       </c>
@@ -2388,7 +2440,9 @@
       <c r="G29" t="s">
         <v>355</v>
       </c>
-      <c r="H29" s="4"/>
+      <c r="H29" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I29" t="s">
         <v>150</v>
       </c>
@@ -2418,7 +2472,9 @@
       <c r="G30" t="s">
         <v>355</v>
       </c>
-      <c r="H30" s="4"/>
+      <c r="H30" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I30" t="s">
         <v>150</v>
       </c>
@@ -2448,7 +2504,9 @@
       <c r="G31" t="s">
         <v>355</v>
       </c>
-      <c r="H31" s="4"/>
+      <c r="H31" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I31" t="s">
         <v>150</v>
       </c>
@@ -2478,7 +2536,9 @@
       <c r="G32" t="s">
         <v>355</v>
       </c>
-      <c r="H32" s="4"/>
+      <c r="H32" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I32" t="s">
         <v>150</v>
       </c>
@@ -2508,7 +2568,9 @@
       <c r="G33" t="s">
         <v>355</v>
       </c>
-      <c r="H33" s="4"/>
+      <c r="H33" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I33" t="s">
         <v>150</v>
       </c>
@@ -2538,7 +2600,9 @@
       <c r="G34" t="s">
         <v>355</v>
       </c>
-      <c r="H34" s="4"/>
+      <c r="H34" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I34" t="s">
         <v>150</v>
       </c>
@@ -2568,7 +2632,9 @@
       <c r="G35" t="s">
         <v>355</v>
       </c>
-      <c r="H35" s="4"/>
+      <c r="H35" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I35" t="s">
         <v>150</v>
       </c>
@@ -2595,7 +2661,9 @@
       <c r="G36" t="s">
         <v>355</v>
       </c>
-      <c r="H36" s="4"/>
+      <c r="H36" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I36" t="s">
         <v>150</v>
       </c>
@@ -2622,7 +2690,9 @@
       <c r="G37" t="s">
         <v>355</v>
       </c>
-      <c r="H37" s="4"/>
+      <c r="H37" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I37" t="s">
         <v>150</v>
       </c>
@@ -2649,7 +2719,9 @@
       <c r="G38" t="s">
         <v>355</v>
       </c>
-      <c r="H38" s="4"/>
+      <c r="H38" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I38" t="s">
         <v>150</v>
       </c>
@@ -2676,7 +2748,9 @@
       <c r="G39" t="s">
         <v>355</v>
       </c>
-      <c r="H39" s="4"/>
+      <c r="H39" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I39" t="s">
         <v>150</v>
       </c>
@@ -2703,7 +2777,9 @@
       <c r="G40" t="s">
         <v>355</v>
       </c>
-      <c r="H40" s="4"/>
+      <c r="H40" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I40" t="s">
         <v>150</v>
       </c>
@@ -2730,7 +2806,9 @@
       <c r="G41" t="s">
         <v>355</v>
       </c>
-      <c r="H41" s="4"/>
+      <c r="H41" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I41" t="s">
         <v>150</v>
       </c>
@@ -2757,7 +2835,9 @@
       <c r="G42" t="s">
         <v>355</v>
       </c>
-      <c r="H42" s="4"/>
+      <c r="H42" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I42" t="s">
         <v>150</v>
       </c>
@@ -2784,7 +2864,9 @@
       <c r="G43" t="s">
         <v>355</v>
       </c>
-      <c r="H43" s="4"/>
+      <c r="H43" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I43" t="s">
         <v>150</v>
       </c>
@@ -2811,7 +2893,9 @@
       <c r="G44" t="s">
         <v>355</v>
       </c>
-      <c r="H44" s="4"/>
+      <c r="H44" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I44" t="s">
         <v>150</v>
       </c>
@@ -2838,7 +2922,9 @@
       <c r="G45" t="s">
         <v>355</v>
       </c>
-      <c r="H45" s="4"/>
+      <c r="H45" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I45" t="s">
         <v>150</v>
       </c>
@@ -2865,7 +2951,9 @@
       <c r="G46" t="s">
         <v>355</v>
       </c>
-      <c r="H46" s="4"/>
+      <c r="H46" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I46" t="s">
         <v>150</v>
       </c>
@@ -2892,7 +2980,9 @@
       <c r="G47" t="s">
         <v>355</v>
       </c>
-      <c r="H47" s="4"/>
+      <c r="H47" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I47" t="s">
         <v>150</v>
       </c>
@@ -2919,7 +3009,9 @@
       <c r="G48" t="s">
         <v>355</v>
       </c>
-      <c r="H48" s="4"/>
+      <c r="H48" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I48" t="s">
         <v>150</v>
       </c>
@@ -2946,7 +3038,9 @@
       <c r="G49" t="s">
         <v>355</v>
       </c>
-      <c r="H49" s="4"/>
+      <c r="H49" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I49" t="s">
         <v>150</v>
       </c>
@@ -2973,7 +3067,9 @@
       <c r="G50" t="s">
         <v>355</v>
       </c>
-      <c r="H50" s="4"/>
+      <c r="H50" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I50" t="s">
         <v>150</v>
       </c>
@@ -3000,7 +3096,9 @@
       <c r="G51" t="s">
         <v>355</v>
       </c>
-      <c r="H51" s="4"/>
+      <c r="H51" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I51" t="s">
         <v>150</v>
       </c>
@@ -3027,7 +3125,9 @@
       <c r="G52" t="s">
         <v>355</v>
       </c>
-      <c r="H52" s="4"/>
+      <c r="H52" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I52" t="s">
         <v>150</v>
       </c>
@@ -3054,7 +3154,9 @@
       <c r="G53" t="s">
         <v>355</v>
       </c>
-      <c r="H53" s="4"/>
+      <c r="H53" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I53" t="s">
         <v>150</v>
       </c>
@@ -3081,7 +3183,9 @@
       <c r="G54" t="s">
         <v>355</v>
       </c>
-      <c r="H54" s="4"/>
+      <c r="H54" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I54" t="s">
         <v>150</v>
       </c>
@@ -3108,7 +3212,9 @@
       <c r="G55" t="s">
         <v>355</v>
       </c>
-      <c r="H55" s="4"/>
+      <c r="H55" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I55" t="s">
         <v>150</v>
       </c>
@@ -3135,7 +3241,9 @@
       <c r="G56" t="s">
         <v>355</v>
       </c>
-      <c r="H56" s="4"/>
+      <c r="H56" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I56" t="s">
         <v>150</v>
       </c>
@@ -3162,7 +3270,9 @@
       <c r="G57" t="s">
         <v>355</v>
       </c>
-      <c r="H57" s="4"/>
+      <c r="H57" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I57" t="s">
         <v>150</v>
       </c>
@@ -3189,7 +3299,9 @@
       <c r="G58" t="s">
         <v>355</v>
       </c>
-      <c r="H58" s="4"/>
+      <c r="H58" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I58" t="s">
         <v>150</v>
       </c>
@@ -3216,7 +3328,9 @@
       <c r="G59" t="s">
         <v>355</v>
       </c>
-      <c r="H59" s="4"/>
+      <c r="H59" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I59" t="s">
         <v>150</v>
       </c>
@@ -3243,7 +3357,9 @@
       <c r="G60" t="s">
         <v>355</v>
       </c>
-      <c r="H60" s="4"/>
+      <c r="H60" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I60" t="s">
         <v>150</v>
       </c>
@@ -3270,7 +3386,9 @@
       <c r="G61" t="s">
         <v>355</v>
       </c>
-      <c r="H61" s="4"/>
+      <c r="H61" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I61" t="s">
         <v>150</v>
       </c>
@@ -3297,7 +3415,9 @@
       <c r="G62" t="s">
         <v>355</v>
       </c>
-      <c r="H62" s="4"/>
+      <c r="H62" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I62" t="s">
         <v>150</v>
       </c>
@@ -3324,7 +3444,9 @@
       <c r="G63" t="s">
         <v>355</v>
       </c>
-      <c r="H63" s="4"/>
+      <c r="H63" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I63" t="s">
         <v>150</v>
       </c>
@@ -3351,7 +3473,9 @@
       <c r="G64" t="s">
         <v>355</v>
       </c>
-      <c r="H64" s="4"/>
+      <c r="H64" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I64" t="s">
         <v>150</v>
       </c>
@@ -3378,7 +3502,9 @@
       <c r="G65" t="s">
         <v>355</v>
       </c>
-      <c r="H65" s="4"/>
+      <c r="H65" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I65" t="s">
         <v>150</v>
       </c>
@@ -3405,7 +3531,9 @@
       <c r="G66" t="s">
         <v>355</v>
       </c>
-      <c r="H66" s="4"/>
+      <c r="H66" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I66" t="s">
         <v>150</v>
       </c>
@@ -3432,7 +3560,9 @@
       <c r="G67" t="s">
         <v>355</v>
       </c>
-      <c r="H67" s="4"/>
+      <c r="H67" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I67" t="s">
         <v>150</v>
       </c>
@@ -3459,7 +3589,9 @@
       <c r="G68" t="s">
         <v>355</v>
       </c>
-      <c r="H68" s="4"/>
+      <c r="H68" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I68" t="s">
         <v>150</v>
       </c>
@@ -3486,7 +3618,9 @@
       <c r="G69" t="s">
         <v>355</v>
       </c>
-      <c r="H69" s="4"/>
+      <c r="H69" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I69" t="s">
         <v>150</v>
       </c>
@@ -3513,7 +3647,9 @@
       <c r="G70" t="s">
         <v>355</v>
       </c>
-      <c r="H70" s="4"/>
+      <c r="H70" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I70" t="s">
         <v>150</v>
       </c>
@@ -3540,7 +3676,9 @@
       <c r="G71" t="s">
         <v>355</v>
       </c>
-      <c r="H71" s="4"/>
+      <c r="H71" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I71" t="s">
         <v>150</v>
       </c>
@@ -3567,7 +3705,9 @@
       <c r="G72" t="s">
         <v>355</v>
       </c>
-      <c r="H72" s="4"/>
+      <c r="H72" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I72" t="s">
         <v>150</v>
       </c>
@@ -3594,7 +3734,9 @@
       <c r="G73" t="s">
         <v>355</v>
       </c>
-      <c r="H73" s="4"/>
+      <c r="H73" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I73" t="s">
         <v>150</v>
       </c>
@@ -3621,7 +3763,9 @@
       <c r="G74" t="s">
         <v>355</v>
       </c>
-      <c r="H74" s="4"/>
+      <c r="H74" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I74" t="s">
         <v>150</v>
       </c>
@@ -3648,7 +3792,9 @@
       <c r="G75" t="s">
         <v>355</v>
       </c>
-      <c r="H75" s="4"/>
+      <c r="H75" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I75" t="s">
         <v>150</v>
       </c>
@@ -3675,7 +3821,9 @@
       <c r="G76" t="s">
         <v>355</v>
       </c>
-      <c r="H76" s="4"/>
+      <c r="H76" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I76" t="s">
         <v>150</v>
       </c>
@@ -3702,7 +3850,9 @@
       <c r="G77" t="s">
         <v>355</v>
       </c>
-      <c r="H77" s="4"/>
+      <c r="H77" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I77" t="s">
         <v>150</v>
       </c>
@@ -3729,7 +3879,9 @@
       <c r="G78" t="s">
         <v>355</v>
       </c>
-      <c r="H78" s="4"/>
+      <c r="H78" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I78" t="s">
         <v>150</v>
       </c>
@@ -3756,7 +3908,9 @@
       <c r="G79" t="s">
         <v>355</v>
       </c>
-      <c r="H79" s="4"/>
+      <c r="H79" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I79" t="s">
         <v>150</v>
       </c>
@@ -3783,7 +3937,9 @@
       <c r="G80" t="s">
         <v>355</v>
       </c>
-      <c r="H80" s="4"/>
+      <c r="H80" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I80" t="s">
         <v>150</v>
       </c>
@@ -3810,7 +3966,9 @@
       <c r="G81" t="s">
         <v>355</v>
       </c>
-      <c r="H81" s="4"/>
+      <c r="H81" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I81" t="s">
         <v>150</v>
       </c>
@@ -3837,7 +3995,9 @@
       <c r="G82" t="s">
         <v>355</v>
       </c>
-      <c r="H82" s="4"/>
+      <c r="H82" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I82" t="s">
         <v>150</v>
       </c>
@@ -3864,7 +4024,9 @@
       <c r="G83" t="s">
         <v>355</v>
       </c>
-      <c r="H83" s="4"/>
+      <c r="H83" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I83" t="s">
         <v>150</v>
       </c>
@@ -3891,7 +4053,9 @@
       <c r="G84" t="s">
         <v>355</v>
       </c>
-      <c r="H84" s="4"/>
+      <c r="H84" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I84" t="s">
         <v>150</v>
       </c>
@@ -3918,7 +4082,9 @@
       <c r="G85" t="s">
         <v>355</v>
       </c>
-      <c r="H85" s="4"/>
+      <c r="H85" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I85" t="s">
         <v>150</v>
       </c>
@@ -3945,7 +4111,9 @@
       <c r="G86" t="s">
         <v>355</v>
       </c>
-      <c r="H86" s="4"/>
+      <c r="H86" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I86" t="s">
         <v>150</v>
       </c>
@@ -3972,7 +4140,9 @@
       <c r="G87" t="s">
         <v>355</v>
       </c>
-      <c r="H87" s="4"/>
+      <c r="H87" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I87" t="s">
         <v>150</v>
       </c>
@@ -3999,7 +4169,9 @@
       <c r="G88" t="s">
         <v>355</v>
       </c>
-      <c r="H88" s="4"/>
+      <c r="H88" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I88" t="s">
         <v>150</v>
       </c>
@@ -4026,7 +4198,9 @@
       <c r="G89" t="s">
         <v>355</v>
       </c>
-      <c r="H89" s="4"/>
+      <c r="H89" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I89" t="s">
         <v>150</v>
       </c>
@@ -4053,7 +4227,9 @@
       <c r="G90" t="s">
         <v>355</v>
       </c>
-      <c r="H90" s="4"/>
+      <c r="H90" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I90" t="s">
         <v>150</v>
       </c>
@@ -4080,7 +4256,9 @@
       <c r="G91" t="s">
         <v>355</v>
       </c>
-      <c r="H91" s="4"/>
+      <c r="H91" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I91" t="s">
         <v>150</v>
       </c>
@@ -4107,7 +4285,9 @@
       <c r="G92" t="s">
         <v>355</v>
       </c>
-      <c r="H92" s="4"/>
+      <c r="H92" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I92" t="s">
         <v>150</v>
       </c>
@@ -4134,7 +4314,9 @@
       <c r="G93" t="s">
         <v>355</v>
       </c>
-      <c r="H93" s="4"/>
+      <c r="H93" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I93" t="s">
         <v>150</v>
       </c>
@@ -4161,7 +4343,9 @@
       <c r="G94" t="s">
         <v>355</v>
       </c>
-      <c r="H94" s="4"/>
+      <c r="H94" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I94" t="s">
         <v>150</v>
       </c>
@@ -4188,7 +4372,9 @@
       <c r="G95" t="s">
         <v>355</v>
       </c>
-      <c r="H95" s="4"/>
+      <c r="H95" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I95" t="s">
         <v>150</v>
       </c>
@@ -4215,7 +4401,9 @@
       <c r="G96" t="s">
         <v>355</v>
       </c>
-      <c r="H96" s="4"/>
+      <c r="H96" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I96" t="s">
         <v>150</v>
       </c>
@@ -4242,7 +4430,9 @@
       <c r="G97" t="s">
         <v>355</v>
       </c>
-      <c r="H97" s="4"/>
+      <c r="H97" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I97" t="s">
         <v>150</v>
       </c>
@@ -4269,7 +4459,9 @@
       <c r="G98" t="s">
         <v>355</v>
       </c>
-      <c r="H98" s="4"/>
+      <c r="H98" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I98" t="s">
         <v>150</v>
       </c>
@@ -4296,7 +4488,9 @@
       <c r="G99" t="s">
         <v>355</v>
       </c>
-      <c r="H99" s="4"/>
+      <c r="H99" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I99" t="s">
         <v>150</v>
       </c>
@@ -4323,7 +4517,9 @@
       <c r="G100" t="s">
         <v>355</v>
       </c>
-      <c r="H100" s="4"/>
+      <c r="H100" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I100" t="s">
         <v>150</v>
       </c>
@@ -4350,7 +4546,9 @@
       <c r="G101" t="s">
         <v>355</v>
       </c>
-      <c r="H101" s="4"/>
+      <c r="H101" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I101" t="s">
         <v>150</v>
       </c>
@@ -4377,7 +4575,9 @@
       <c r="G102" t="s">
         <v>355</v>
       </c>
-      <c r="H102" s="4"/>
+      <c r="H102" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I102" t="s">
         <v>150</v>
       </c>
@@ -4404,7 +4604,9 @@
       <c r="G103" t="s">
         <v>355</v>
       </c>
-      <c r="H103" s="4"/>
+      <c r="H103" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I103" t="s">
         <v>150</v>
       </c>
@@ -4431,7 +4633,9 @@
       <c r="G104" t="s">
         <v>355</v>
       </c>
-      <c r="H104" s="4"/>
+      <c r="H104" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I104" t="s">
         <v>150</v>
       </c>
@@ -4458,7 +4662,9 @@
       <c r="G105" t="s">
         <v>355</v>
       </c>
-      <c r="H105" s="4"/>
+      <c r="H105" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I105" t="s">
         <v>150</v>
       </c>
@@ -4485,7 +4691,9 @@
       <c r="G106" t="s">
         <v>355</v>
       </c>
-      <c r="H106" s="4"/>
+      <c r="H106" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I106" t="s">
         <v>150</v>
       </c>
@@ -4512,7 +4720,9 @@
       <c r="G107" t="s">
         <v>355</v>
       </c>
-      <c r="H107" s="4"/>
+      <c r="H107" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I107" t="s">
         <v>150</v>
       </c>
@@ -4539,7 +4749,9 @@
       <c r="G108" t="s">
         <v>355</v>
       </c>
-      <c r="H108" s="4"/>
+      <c r="H108" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I108" t="s">
         <v>150</v>
       </c>
@@ -4566,7 +4778,9 @@
       <c r="G109" t="s">
         <v>355</v>
       </c>
-      <c r="H109" s="4"/>
+      <c r="H109" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I109" t="s">
         <v>150</v>
       </c>
@@ -4593,7 +4807,9 @@
       <c r="G110" t="s">
         <v>355</v>
       </c>
-      <c r="H110" s="4"/>
+      <c r="H110" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I110" t="s">
         <v>150</v>
       </c>
@@ -4620,7 +4836,9 @@
       <c r="G111" t="s">
         <v>355</v>
       </c>
-      <c r="H111" s="4"/>
+      <c r="H111" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I111" t="s">
         <v>150</v>
       </c>
@@ -4647,7 +4865,9 @@
       <c r="G112" t="s">
         <v>355</v>
       </c>
-      <c r="H112" s="4"/>
+      <c r="H112" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I112" t="s">
         <v>150</v>
       </c>
@@ -4674,7 +4894,9 @@
       <c r="G113" t="s">
         <v>355</v>
       </c>
-      <c r="H113" s="4"/>
+      <c r="H113" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I113" t="s">
         <v>150</v>
       </c>
@@ -4701,7 +4923,9 @@
       <c r="G114" t="s">
         <v>355</v>
       </c>
-      <c r="H114" s="4"/>
+      <c r="H114" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I114" t="s">
         <v>150</v>
       </c>
@@ -4728,7 +4952,9 @@
       <c r="G115" t="s">
         <v>355</v>
       </c>
-      <c r="H115" s="4"/>
+      <c r="H115" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I115" t="s">
         <v>150</v>
       </c>
@@ -4755,7 +4981,9 @@
       <c r="G116" t="s">
         <v>355</v>
       </c>
-      <c r="H116" s="4"/>
+      <c r="H116" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I116" t="s">
         <v>150</v>
       </c>
@@ -4782,7 +5010,9 @@
       <c r="G117" t="s">
         <v>355</v>
       </c>
-      <c r="H117" s="4"/>
+      <c r="H117" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I117" t="s">
         <v>150</v>
       </c>
@@ -4809,7 +5039,9 @@
       <c r="G118" t="s">
         <v>355</v>
       </c>
-      <c r="H118" s="4"/>
+      <c r="H118" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I118" t="s">
         <v>150</v>
       </c>
@@ -4836,7 +5068,9 @@
       <c r="G119" t="s">
         <v>355</v>
       </c>
-      <c r="H119" s="4"/>
+      <c r="H119" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I119" t="s">
         <v>150</v>
       </c>
@@ -4863,7 +5097,9 @@
       <c r="G120" t="s">
         <v>355</v>
       </c>
-      <c r="H120" s="4"/>
+      <c r="H120" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I120" t="s">
         <v>150</v>
       </c>
@@ -4890,7 +5126,9 @@
       <c r="G121" t="s">
         <v>355</v>
       </c>
-      <c r="H121" s="4"/>
+      <c r="H121" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I121" t="s">
         <v>150</v>
       </c>
@@ -4917,7 +5155,9 @@
       <c r="G122" t="s">
         <v>355</v>
       </c>
-      <c r="H122" s="4"/>
+      <c r="H122" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I122" t="s">
         <v>150</v>
       </c>
@@ -4944,7 +5184,9 @@
       <c r="G123" t="s">
         <v>355</v>
       </c>
-      <c r="H123" s="4"/>
+      <c r="H123" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I123" t="s">
         <v>150</v>
       </c>
@@ -4971,7 +5213,9 @@
       <c r="G124" t="s">
         <v>355</v>
       </c>
-      <c r="H124" s="4"/>
+      <c r="H124" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I124" t="s">
         <v>150</v>
       </c>
@@ -4998,7 +5242,9 @@
       <c r="G125" t="s">
         <v>355</v>
       </c>
-      <c r="H125" s="4"/>
+      <c r="H125" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I125" t="s">
         <v>150</v>
       </c>
@@ -5025,7 +5271,9 @@
       <c r="G126" t="s">
         <v>355</v>
       </c>
-      <c r="H126" s="4"/>
+      <c r="H126" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I126" t="s">
         <v>150</v>
       </c>
@@ -5052,7 +5300,9 @@
       <c r="G127" t="s">
         <v>355</v>
       </c>
-      <c r="H127" s="4"/>
+      <c r="H127" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I127" t="s">
         <v>150</v>
       </c>
@@ -5079,7 +5329,9 @@
       <c r="G128" t="s">
         <v>355</v>
       </c>
-      <c r="H128" s="4"/>
+      <c r="H128" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I128" t="s">
         <v>150</v>
       </c>
@@ -5106,7 +5358,9 @@
       <c r="G129" t="s">
         <v>355</v>
       </c>
-      <c r="H129" s="4"/>
+      <c r="H129" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I129" t="s">
         <v>150</v>
       </c>
@@ -5133,7 +5387,9 @@
       <c r="G130" t="s">
         <v>355</v>
       </c>
-      <c r="H130" s="4"/>
+      <c r="H130" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I130" t="s">
         <v>150</v>
       </c>
@@ -5160,7 +5416,9 @@
       <c r="G131" t="s">
         <v>355</v>
       </c>
-      <c r="H131" s="4"/>
+      <c r="H131" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I131" t="s">
         <v>150</v>
       </c>
@@ -5187,7 +5445,9 @@
       <c r="G132" t="s">
         <v>355</v>
       </c>
-      <c r="H132" s="4"/>
+      <c r="H132" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I132" t="s">
         <v>150</v>
       </c>
@@ -5214,7 +5474,9 @@
       <c r="G133" t="s">
         <v>355</v>
       </c>
-      <c r="H133" s="4"/>
+      <c r="H133" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I133" t="s">
         <v>150</v>
       </c>
@@ -5241,7 +5503,9 @@
       <c r="G134" t="s">
         <v>149</v>
       </c>
-      <c r="H134" s="4"/>
+      <c r="H134" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I134" t="s">
         <v>353</v>
       </c>
@@ -5268,7 +5532,9 @@
       <c r="G135" t="s">
         <v>149</v>
       </c>
-      <c r="H135" s="4"/>
+      <c r="H135" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I135" t="s">
         <v>353</v>
       </c>
@@ -5295,7 +5561,9 @@
       <c r="G136" t="s">
         <v>149</v>
       </c>
-      <c r="H136" s="4"/>
+      <c r="H136" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I136" t="s">
         <v>353</v>
       </c>
@@ -5322,7 +5590,9 @@
       <c r="G137" t="s">
         <v>149</v>
       </c>
-      <c r="H137" s="4"/>
+      <c r="H137" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I137" t="s">
         <v>353</v>
       </c>
@@ -5349,7 +5619,9 @@
       <c r="G138" t="s">
         <v>149</v>
       </c>
-      <c r="H138" s="4"/>
+      <c r="H138" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I138" t="s">
         <v>353</v>
       </c>
@@ -5376,7 +5648,9 @@
       <c r="G139" t="s">
         <v>149</v>
       </c>
-      <c r="H139" s="4"/>
+      <c r="H139" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I139" t="s">
         <v>353</v>
       </c>
@@ -5403,7 +5677,9 @@
       <c r="G140" t="s">
         <v>149</v>
       </c>
-      <c r="H140" s="4"/>
+      <c r="H140" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I140" t="s">
         <v>353</v>
       </c>
@@ -5430,7 +5706,9 @@
       <c r="G141" t="s">
         <v>149</v>
       </c>
-      <c r="H141" s="4"/>
+      <c r="H141" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I141" t="s">
         <v>353</v>
       </c>
@@ -5457,7 +5735,9 @@
       <c r="G142" t="s">
         <v>149</v>
       </c>
-      <c r="H142" s="4"/>
+      <c r="H142" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I142" t="s">
         <v>353</v>
       </c>
@@ -5484,7 +5764,9 @@
       <c r="G143" t="s">
         <v>149</v>
       </c>
-      <c r="H143" s="4"/>
+      <c r="H143" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I143" t="s">
         <v>353</v>
       </c>
@@ -5511,7 +5793,9 @@
       <c r="G144" t="s">
         <v>149</v>
       </c>
-      <c r="H144" s="4"/>
+      <c r="H144" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I144" t="s">
         <v>353</v>
       </c>
@@ -5538,7 +5822,9 @@
       <c r="G145" t="s">
         <v>149</v>
       </c>
-      <c r="H145" s="4"/>
+      <c r="H145" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I145" t="s">
         <v>353</v>
       </c>
@@ -5565,7 +5851,9 @@
       <c r="G146" t="s">
         <v>149</v>
       </c>
-      <c r="H146" s="4"/>
+      <c r="H146" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I146" t="s">
         <v>353</v>
       </c>
@@ -5592,7 +5880,9 @@
       <c r="G147" t="s">
         <v>149</v>
       </c>
-      <c r="H147" s="4"/>
+      <c r="H147" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I147" t="s">
         <v>353</v>
       </c>
@@ -5619,7 +5909,9 @@
       <c r="G148" t="s">
         <v>149</v>
       </c>
-      <c r="H148" s="4"/>
+      <c r="H148" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I148" t="s">
         <v>353</v>
       </c>
@@ -5646,7 +5938,9 @@
       <c r="G149" t="s">
         <v>149</v>
       </c>
-      <c r="H149" s="4"/>
+      <c r="H149" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I149" t="s">
         <v>353</v>
       </c>
@@ -5673,7 +5967,9 @@
       <c r="G150" t="s">
         <v>149</v>
       </c>
-      <c r="H150" s="4"/>
+      <c r="H150" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I150" t="s">
         <v>353</v>
       </c>
@@ -5700,7 +5996,9 @@
       <c r="G151" t="s">
         <v>149</v>
       </c>
-      <c r="H151" s="4"/>
+      <c r="H151" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I151" t="s">
         <v>353</v>
       </c>
@@ -5727,7 +6025,9 @@
       <c r="G152" t="s">
         <v>149</v>
       </c>
-      <c r="H152" s="4"/>
+      <c r="H152" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I152" t="s">
         <v>353</v>
       </c>
@@ -5754,7 +6054,9 @@
       <c r="G153" t="s">
         <v>149</v>
       </c>
-      <c r="H153" s="4"/>
+      <c r="H153" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I153" t="s">
         <v>353</v>
       </c>
@@ -5781,7 +6083,9 @@
       <c r="G154" t="s">
         <v>149</v>
       </c>
-      <c r="H154" s="4"/>
+      <c r="H154" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I154" t="s">
         <v>353</v>
       </c>
@@ -5808,7 +6112,9 @@
       <c r="G155" t="s">
         <v>149</v>
       </c>
-      <c r="H155" s="4"/>
+      <c r="H155" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I155" t="s">
         <v>353</v>
       </c>
@@ -5835,7 +6141,9 @@
       <c r="G156" t="s">
         <v>149</v>
       </c>
-      <c r="H156" s="4"/>
+      <c r="H156" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I156" t="s">
         <v>353</v>
       </c>
@@ -5862,7 +6170,9 @@
       <c r="G157" t="s">
         <v>149</v>
       </c>
-      <c r="H157" s="4"/>
+      <c r="H157" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I157" t="s">
         <v>353</v>
       </c>
@@ -5889,7 +6199,9 @@
       <c r="G158" t="s">
         <v>149</v>
       </c>
-      <c r="H158" s="4"/>
+      <c r="H158" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I158" t="s">
         <v>353</v>
       </c>
@@ -5916,7 +6228,9 @@
       <c r="G159" t="s">
         <v>149</v>
       </c>
-      <c r="H159" s="4"/>
+      <c r="H159" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I159" t="s">
         <v>353</v>
       </c>
@@ -5943,7 +6257,9 @@
       <c r="G160" t="s">
         <v>149</v>
       </c>
-      <c r="H160" s="4"/>
+      <c r="H160" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I160" t="s">
         <v>353</v>
       </c>
@@ -5970,7 +6286,9 @@
       <c r="G161" t="s">
         <v>149</v>
       </c>
-      <c r="H161" s="4"/>
+      <c r="H161" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I161" t="s">
         <v>353</v>
       </c>
@@ -5997,7 +6315,9 @@
       <c r="G162" t="s">
         <v>149</v>
       </c>
-      <c r="H162" s="4"/>
+      <c r="H162" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I162" t="s">
         <v>353</v>
       </c>
@@ -6024,7 +6344,9 @@
       <c r="G163" t="s">
         <v>149</v>
       </c>
-      <c r="H163" s="4"/>
+      <c r="H163" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I163" t="s">
         <v>353</v>
       </c>
@@ -6051,7 +6373,9 @@
       <c r="G164" t="s">
         <v>149</v>
       </c>
-      <c r="H164" s="4"/>
+      <c r="H164" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I164" t="s">
         <v>353</v>
       </c>
@@ -6078,7 +6402,9 @@
       <c r="G165" t="s">
         <v>149</v>
       </c>
-      <c r="H165" s="4"/>
+      <c r="H165" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I165" t="s">
         <v>353</v>
       </c>
@@ -6105,7 +6431,9 @@
       <c r="G166" t="s">
         <v>149</v>
       </c>
-      <c r="H166" s="4"/>
+      <c r="H166" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I166" t="s">
         <v>353</v>
       </c>
@@ -6132,7 +6460,9 @@
       <c r="G167" t="s">
         <v>149</v>
       </c>
-      <c r="H167" s="4"/>
+      <c r="H167" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I167" t="s">
         <v>353</v>
       </c>
@@ -6159,7 +6489,9 @@
       <c r="G168" t="s">
         <v>149</v>
       </c>
-      <c r="H168" s="4"/>
+      <c r="H168" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I168" t="s">
         <v>353</v>
       </c>
@@ -6186,7 +6518,9 @@
       <c r="G169" t="s">
         <v>149</v>
       </c>
-      <c r="H169" s="4"/>
+      <c r="H169" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I169" t="s">
         <v>353</v>
       </c>
@@ -6213,7 +6547,9 @@
       <c r="G170" t="s">
         <v>149</v>
       </c>
-      <c r="H170" s="4"/>
+      <c r="H170" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I170" t="s">
         <v>353</v>
       </c>
@@ -6240,7 +6576,9 @@
       <c r="G171" t="s">
         <v>149</v>
       </c>
-      <c r="H171" s="4"/>
+      <c r="H171" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I171" t="s">
         <v>353</v>
       </c>
@@ -6267,7 +6605,9 @@
       <c r="G172" t="s">
         <v>149</v>
       </c>
-      <c r="H172" s="4"/>
+      <c r="H172" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I172" t="s">
         <v>353</v>
       </c>
@@ -6294,7 +6634,9 @@
       <c r="G173" t="s">
         <v>149</v>
       </c>
-      <c r="H173" s="4"/>
+      <c r="H173" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I173" t="s">
         <v>353</v>
       </c>
@@ -6321,7 +6663,9 @@
       <c r="G174" t="s">
         <v>149</v>
       </c>
-      <c r="H174" s="4"/>
+      <c r="H174" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I174" t="s">
         <v>353</v>
       </c>
@@ -6348,7 +6692,9 @@
       <c r="G175" t="s">
         <v>149</v>
       </c>
-      <c r="H175" s="4"/>
+      <c r="H175" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I175" t="s">
         <v>353</v>
       </c>
@@ -6375,7 +6721,9 @@
       <c r="G176" t="s">
         <v>149</v>
       </c>
-      <c r="H176" s="4"/>
+      <c r="H176" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I176" t="s">
         <v>353</v>
       </c>
@@ -6402,7 +6750,9 @@
       <c r="G177" t="s">
         <v>149</v>
       </c>
-      <c r="H177" s="4"/>
+      <c r="H177" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I177" t="s">
         <v>353</v>
       </c>
@@ -6429,7 +6779,9 @@
       <c r="G178" t="s">
         <v>149</v>
       </c>
-      <c r="H178" s="4"/>
+      <c r="H178" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I178" t="s">
         <v>353</v>
       </c>
@@ -6456,7 +6808,9 @@
       <c r="G179" t="s">
         <v>149</v>
       </c>
-      <c r="H179" s="4"/>
+      <c r="H179" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I179" t="s">
         <v>353</v>
       </c>
@@ -6483,7 +6837,9 @@
       <c r="G180" t="s">
         <v>149</v>
       </c>
-      <c r="H180" s="4"/>
+      <c r="H180" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I180" t="s">
         <v>353</v>
       </c>
@@ -6510,7 +6866,9 @@
       <c r="G181" t="s">
         <v>149</v>
       </c>
-      <c r="H181" s="4"/>
+      <c r="H181" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I181" t="s">
         <v>353</v>
       </c>
@@ -6537,7 +6895,9 @@
       <c r="G182" t="s">
         <v>149</v>
       </c>
-      <c r="H182" s="4"/>
+      <c r="H182" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I182" t="s">
         <v>353</v>
       </c>
@@ -6564,7 +6924,9 @@
       <c r="G183" t="s">
         <v>149</v>
       </c>
-      <c r="H183" s="4"/>
+      <c r="H183" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I183" t="s">
         <v>353</v>
       </c>
@@ -6591,7 +6953,9 @@
       <c r="G184" t="s">
         <v>149</v>
       </c>
-      <c r="H184" s="4"/>
+      <c r="H184" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I184" t="s">
         <v>353</v>
       </c>
@@ -6618,7 +6982,9 @@
       <c r="G185" t="s">
         <v>149</v>
       </c>
-      <c r="H185" s="4"/>
+      <c r="H185" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I185" t="s">
         <v>353</v>
       </c>
@@ -6645,7 +7011,9 @@
       <c r="G186" t="s">
         <v>149</v>
       </c>
-      <c r="H186" s="4"/>
+      <c r="H186" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I186" t="s">
         <v>353</v>
       </c>
@@ -6672,7 +7040,9 @@
       <c r="G187" t="s">
         <v>149</v>
       </c>
-      <c r="H187" s="4"/>
+      <c r="H187" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I187" t="s">
         <v>353</v>
       </c>
@@ -6699,7 +7069,9 @@
       <c r="G188" t="s">
         <v>149</v>
       </c>
-      <c r="H188" s="4"/>
+      <c r="H188" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I188" t="s">
         <v>353</v>
       </c>
@@ -6726,7 +7098,9 @@
       <c r="G189" t="s">
         <v>149</v>
       </c>
-      <c r="H189" s="4"/>
+      <c r="H189" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I189" t="s">
         <v>353</v>
       </c>
@@ -6753,7 +7127,9 @@
       <c r="G190" t="s">
         <v>149</v>
       </c>
-      <c r="H190" s="4"/>
+      <c r="H190" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I190" t="s">
         <v>353</v>
       </c>
@@ -6780,7 +7156,9 @@
       <c r="G191" t="s">
         <v>149</v>
       </c>
-      <c r="H191" s="4"/>
+      <c r="H191" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I191" t="s">
         <v>353</v>
       </c>
@@ -6807,7 +7185,9 @@
       <c r="G192" t="s">
         <v>149</v>
       </c>
-      <c r="H192" s="4"/>
+      <c r="H192" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I192" t="s">
         <v>353</v>
       </c>
@@ -6834,7 +7214,9 @@
       <c r="G193" t="s">
         <v>149</v>
       </c>
-      <c r="H193" s="4"/>
+      <c r="H193" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I193" t="s">
         <v>353</v>
       </c>
@@ -6861,7 +7243,9 @@
       <c r="G194" t="s">
         <v>149</v>
       </c>
-      <c r="H194" s="4"/>
+      <c r="H194" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I194" t="s">
         <v>353</v>
       </c>
@@ -6888,7 +7272,9 @@
       <c r="G195" t="s">
         <v>149</v>
       </c>
-      <c r="H195" s="4"/>
+      <c r="H195" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I195" t="s">
         <v>353</v>
       </c>
@@ -6915,7 +7301,9 @@
       <c r="G196" t="s">
         <v>149</v>
       </c>
-      <c r="H196" s="4"/>
+      <c r="H196" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I196" t="s">
         <v>353</v>
       </c>
@@ -6942,7 +7330,9 @@
       <c r="G197" t="s">
         <v>149</v>
       </c>
-      <c r="H197" s="4"/>
+      <c r="H197" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I197" t="s">
         <v>353</v>
       </c>
@@ -6969,7 +7359,9 @@
       <c r="G198" t="s">
         <v>149</v>
       </c>
-      <c r="H198" s="4"/>
+      <c r="H198" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I198" t="s">
         <v>353</v>
       </c>
@@ -6996,7 +7388,9 @@
       <c r="G199" t="s">
         <v>149</v>
       </c>
-      <c r="H199" s="4"/>
+      <c r="H199" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I199" t="s">
         <v>353</v>
       </c>
@@ -7023,7 +7417,9 @@
       <c r="G200" t="s">
         <v>149</v>
       </c>
-      <c r="H200" s="4"/>
+      <c r="H200" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I200" t="s">
         <v>353</v>
       </c>
@@ -7050,7 +7446,9 @@
       <c r="G201" t="s">
         <v>149</v>
       </c>
-      <c r="H201" s="4"/>
+      <c r="H201" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I201" t="s">
         <v>353</v>
       </c>
@@ -7077,7 +7475,9 @@
       <c r="G202" t="s">
         <v>149</v>
       </c>
-      <c r="H202" s="4"/>
+      <c r="H202" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I202" t="s">
         <v>353</v>
       </c>
@@ -7104,7 +7504,9 @@
       <c r="G203" t="s">
         <v>149</v>
       </c>
-      <c r="H203" s="4"/>
+      <c r="H203" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I203" t="s">
         <v>353</v>
       </c>
@@ -7131,7 +7533,9 @@
       <c r="G204" t="s">
         <v>149</v>
       </c>
-      <c r="H204" s="4"/>
+      <c r="H204" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I204" t="s">
         <v>353</v>
       </c>
@@ -7158,7 +7562,9 @@
       <c r="G205" t="s">
         <v>149</v>
       </c>
-      <c r="H205" s="4"/>
+      <c r="H205" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I205" t="s">
         <v>353</v>
       </c>
@@ -7185,7 +7591,9 @@
       <c r="G206" t="s">
         <v>149</v>
       </c>
-      <c r="H206" s="4"/>
+      <c r="H206" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I206" t="s">
         <v>353</v>
       </c>
@@ -7212,7 +7620,9 @@
       <c r="G207" t="s">
         <v>149</v>
       </c>
-      <c r="H207" s="4"/>
+      <c r="H207" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I207" t="s">
         <v>353</v>
       </c>
@@ -7239,7 +7649,9 @@
       <c r="G208" t="s">
         <v>149</v>
       </c>
-      <c r="H208" s="4"/>
+      <c r="H208" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I208" t="s">
         <v>353</v>
       </c>
@@ -7266,7 +7678,9 @@
       <c r="G209" t="s">
         <v>149</v>
       </c>
-      <c r="H209" s="4"/>
+      <c r="H209" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I209" t="s">
         <v>353</v>
       </c>
@@ -7293,7 +7707,9 @@
       <c r="G210" t="s">
         <v>149</v>
       </c>
-      <c r="H210" s="4"/>
+      <c r="H210" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I210" t="s">
         <v>353</v>
       </c>
@@ -7320,7 +7736,9 @@
       <c r="G211" t="s">
         <v>149</v>
       </c>
-      <c r="H211" s="4"/>
+      <c r="H211" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I211" t="s">
         <v>353</v>
       </c>
@@ -7347,7 +7765,9 @@
       <c r="G212" t="s">
         <v>149</v>
       </c>
-      <c r="H212" s="4"/>
+      <c r="H212" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I212" t="s">
         <v>353</v>
       </c>
@@ -7374,7 +7794,9 @@
       <c r="G213" t="s">
         <v>149</v>
       </c>
-      <c r="H213" s="4"/>
+      <c r="H213" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I213" t="s">
         <v>353</v>
       </c>
@@ -7401,7 +7823,9 @@
       <c r="G214" t="s">
         <v>149</v>
       </c>
-      <c r="H214" s="4"/>
+      <c r="H214" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I214" t="s">
         <v>353</v>
       </c>
@@ -7428,7 +7852,9 @@
       <c r="G215" t="s">
         <v>149</v>
       </c>
-      <c r="H215" s="4"/>
+      <c r="H215" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I215" t="s">
         <v>353</v>
       </c>
@@ -7455,7 +7881,9 @@
       <c r="G216" t="s">
         <v>149</v>
       </c>
-      <c r="H216" s="4"/>
+      <c r="H216" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I216" t="s">
         <v>353</v>
       </c>
@@ -7482,7 +7910,9 @@
       <c r="G217" t="s">
         <v>149</v>
       </c>
-      <c r="H217" s="4"/>
+      <c r="H217" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I217" t="s">
         <v>353</v>
       </c>
@@ -7509,7 +7939,9 @@
       <c r="G218" t="s">
         <v>149</v>
       </c>
-      <c r="H218" s="4"/>
+      <c r="H218" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I218" t="s">
         <v>353</v>
       </c>
@@ -7536,7 +7968,9 @@
       <c r="G219" t="s">
         <v>149</v>
       </c>
-      <c r="H219" s="4"/>
+      <c r="H219" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I219" t="s">
         <v>353</v>
       </c>
@@ -7563,7 +7997,9 @@
       <c r="G220" t="s">
         <v>149</v>
       </c>
-      <c r="H220" s="4"/>
+      <c r="H220" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I220" t="s">
         <v>353</v>
       </c>
@@ -7590,7 +8026,9 @@
       <c r="G221" t="s">
         <v>149</v>
       </c>
-      <c r="H221" s="4"/>
+      <c r="H221" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I221" t="s">
         <v>353</v>
       </c>
@@ -7617,7 +8055,9 @@
       <c r="G222" t="s">
         <v>149</v>
       </c>
-      <c r="H222" s="4"/>
+      <c r="H222" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I222" t="s">
         <v>353</v>
       </c>
@@ -7644,7 +8084,9 @@
       <c r="G223" t="s">
         <v>149</v>
       </c>
-      <c r="H223" s="4"/>
+      <c r="H223" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I223" t="s">
         <v>353</v>
       </c>
@@ -7671,12 +8113,14 @@
       <c r="G224" t="s">
         <v>149</v>
       </c>
-      <c r="H224" s="4"/>
+      <c r="H224" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I224" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>249</v>
       </c>
@@ -7698,12 +8142,14 @@
       <c r="G225" t="s">
         <v>149</v>
       </c>
-      <c r="H225" s="4"/>
+      <c r="H225" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I225" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>249</v>
       </c>
@@ -7725,12 +8171,14 @@
       <c r="G226" t="s">
         <v>149</v>
       </c>
-      <c r="H226" s="4"/>
+      <c r="H226" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I226" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>249</v>
       </c>
@@ -7752,12 +8200,14 @@
       <c r="G227" t="s">
         <v>149</v>
       </c>
-      <c r="H227" s="4"/>
+      <c r="H227" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I227" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>249</v>
       </c>
@@ -7779,12 +8229,14 @@
       <c r="G228" t="s">
         <v>149</v>
       </c>
-      <c r="H228" s="4"/>
+      <c r="H228" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I228" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>249</v>
       </c>
@@ -7806,12 +8258,14 @@
       <c r="G229" t="s">
         <v>149</v>
       </c>
-      <c r="H229" s="4"/>
+      <c r="H229" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I229" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>249</v>
       </c>
@@ -7833,12 +8287,14 @@
       <c r="G230" t="s">
         <v>149</v>
       </c>
-      <c r="H230" s="4"/>
+      <c r="H230" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I230" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>249</v>
       </c>
@@ -7860,12 +8316,14 @@
       <c r="G231" t="s">
         <v>149</v>
       </c>
-      <c r="H231" s="4"/>
+      <c r="H231" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I231" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>249</v>
       </c>
@@ -7887,12 +8345,14 @@
       <c r="G232" t="s">
         <v>149</v>
       </c>
-      <c r="H232" s="4"/>
+      <c r="H232" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I232" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>249</v>
       </c>
@@ -7914,12 +8374,14 @@
       <c r="G233" t="s">
         <v>149</v>
       </c>
-      <c r="H233" s="4"/>
+      <c r="H233" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I233" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>249</v>
       </c>
@@ -7941,12 +8403,14 @@
       <c r="G234" t="s">
         <v>149</v>
       </c>
-      <c r="H234" s="4"/>
+      <c r="H234" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I234" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>249</v>
       </c>
@@ -7968,12 +8432,14 @@
       <c r="G235" t="s">
         <v>149</v>
       </c>
-      <c r="H235" s="4"/>
+      <c r="H235" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I235" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>156</v>
       </c>
@@ -8001,13 +8467,11 @@
       <c r="I236" t="s">
         <v>162</v>
       </c>
-      <c r="K236" s="6" t="s">
+      <c r="K236" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L236" s="5"/>
-      <c r="M236" s="5"/>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>156</v>
       </c>
@@ -8035,20 +8499,20 @@
       <c r="I237" t="s">
         <v>162</v>
       </c>
-      <c r="K237" s="6" t="s">
+      <c r="K237" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="L237" s="6" t="s">
+      <c r="L237" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="M237" s="6" t="s">
+      <c r="M237" s="3" t="s">
         <v>155</v>
       </c>
       <c r="O237" s="3" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>156</v>
       </c>
@@ -8076,20 +8540,23 @@
       <c r="I238" t="s">
         <v>162</v>
       </c>
-      <c r="K238" s="6" t="s">
+      <c r="K238" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L238" s="5" t="s">
+      <c r="L238" t="s">
         <v>151</v>
       </c>
-      <c r="M238" s="5">
+      <c r="M238">
         <v>132</v>
       </c>
       <c r="O238" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q238" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>156</v>
       </c>
@@ -8117,18 +8584,21 @@
       <c r="I239" t="s">
         <v>162</v>
       </c>
-      <c r="K239" s="6"/>
-      <c r="L239" s="5" t="s">
+      <c r="K239" s="3"/>
+      <c r="L239" t="s">
         <v>152</v>
       </c>
-      <c r="M239" s="5">
+      <c r="M239">
         <v>36</v>
       </c>
       <c r="O239" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q239" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>156</v>
       </c>
@@ -8156,18 +8626,20 @@
       <c r="I240" t="s">
         <v>162</v>
       </c>
-      <c r="K240" s="5"/>
-      <c r="L240" s="5" t="s">
+      <c r="L240" t="s">
         <v>8</v>
       </c>
-      <c r="M240" s="5">
+      <c r="M240">
         <v>81</v>
       </c>
       <c r="O240" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q240" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>156</v>
       </c>
@@ -8195,18 +8667,20 @@
       <c r="I241" t="s">
         <v>162</v>
       </c>
-      <c r="K241" s="5"/>
-      <c r="L241" s="5" t="s">
+      <c r="L241" t="s">
         <v>9</v>
       </c>
-      <c r="M241" s="5">
+      <c r="M241">
         <v>34</v>
       </c>
       <c r="O241" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q241" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>156</v>
       </c>
@@ -8234,11 +8708,8 @@
       <c r="I242" t="s">
         <v>162</v>
       </c>
-      <c r="K242" s="5"/>
-      <c r="L242" s="5"/>
-      <c r="M242" s="5"/>
-    </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>156</v>
       </c>
@@ -8266,17 +8737,17 @@
       <c r="I243" t="s">
         <v>162</v>
       </c>
-      <c r="K243" s="6" t="s">
+      <c r="K243" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L243" s="5" t="s">
+      <c r="L243" t="s">
         <v>7</v>
       </c>
-      <c r="M243" s="5">
+      <c r="M243">
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>156</v>
       </c>
@@ -8304,15 +8775,14 @@
       <c r="I244" t="s">
         <v>162</v>
       </c>
-      <c r="K244" s="5"/>
-      <c r="L244" s="5" t="s">
+      <c r="L244" t="s">
         <v>8</v>
       </c>
-      <c r="M244" s="5">
+      <c r="M244">
         <v>81</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>156</v>
       </c>
@@ -8340,15 +8810,14 @@
       <c r="I245" t="s">
         <v>162</v>
       </c>
-      <c r="K245" s="5"/>
-      <c r="L245" s="5" t="s">
+      <c r="L245" t="s">
         <v>9</v>
       </c>
-      <c r="M245" s="5">
+      <c r="M245">
         <v>34</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>156</v>
       </c>
@@ -8376,11 +8845,8 @@
       <c r="I246" t="s">
         <v>162</v>
       </c>
-      <c r="K246" s="5"/>
-      <c r="L246" s="5"/>
-      <c r="M246" s="5"/>
-    </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>156</v>
       </c>
@@ -8409,7 +8875,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>156</v>
       </c>
@@ -8438,7 +8904,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>156</v>
       </c>
@@ -8467,7 +8933,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>156</v>
       </c>
@@ -8496,7 +8962,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>156</v>
       </c>
@@ -8525,7 +8991,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>156</v>
       </c>
@@ -8554,7 +9020,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>156</v>
       </c>
@@ -8583,7 +9049,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>156</v>
       </c>
@@ -8612,7 +9078,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>156</v>
       </c>
@@ -8641,7 +9107,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>156</v>
       </c>
@@ -9133,13 +9599,13 @@
       <c r="I272" t="s">
         <v>162</v>
       </c>
-      <c r="K272" s="6" t="s">
+      <c r="K272" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L272" s="5" t="s">
+      <c r="L272" t="s">
         <v>7</v>
       </c>
-      <c r="M272" s="5">
+      <c r="M272">
         <v>63</v>
       </c>
     </row>
@@ -9171,11 +9637,10 @@
       <c r="I273" t="s">
         <v>162</v>
       </c>
-      <c r="K273" s="5"/>
-      <c r="L273" s="5" t="s">
+      <c r="L273" t="s">
         <v>8</v>
       </c>
-      <c r="M273" s="5">
+      <c r="M273">
         <v>81</v>
       </c>
     </row>
@@ -9207,11 +9672,10 @@
       <c r="I274" t="s">
         <v>162</v>
       </c>
-      <c r="K274" s="5"/>
-      <c r="L274" s="5" t="s">
+      <c r="L274" t="s">
         <v>9</v>
       </c>
-      <c r="M274" s="5">
+      <c r="M274">
         <v>34</v>
       </c>
     </row>
@@ -9395,11 +9859,9 @@
       <c r="I280" t="s">
         <v>162</v>
       </c>
-      <c r="K280" s="6" t="s">
+      <c r="K280" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="L280" s="5"/>
-      <c r="M280" s="5"/>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
@@ -9429,13 +9891,13 @@
       <c r="I281" t="s">
         <v>162</v>
       </c>
-      <c r="K281" s="6" t="s">
+      <c r="K281" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="L281" s="6" t="s">
+      <c r="L281" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="M281" s="6" t="s">
+      <c r="M281" s="3" t="s">
         <v>155</v>
       </c>
     </row>
@@ -9467,13 +9929,12 @@
       <c r="I282" t="s">
         <v>162</v>
       </c>
-      <c r="K282" s="6" t="s">
+      <c r="K282" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L282" s="5" t="s">
+      <c r="L282" t="s">
         <v>151</v>
       </c>
-      <c r="M282" s="5"/>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
@@ -9503,11 +9964,10 @@
       <c r="I283" t="s">
         <v>162</v>
       </c>
-      <c r="K283" s="6"/>
-      <c r="L283" s="5" t="s">
+      <c r="K283" s="3"/>
+      <c r="L283" t="s">
         <v>152</v>
       </c>
-      <c r="M283" s="5"/>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
@@ -9537,11 +9997,9 @@
       <c r="I284" t="s">
         <v>162</v>
       </c>
-      <c r="K284" s="5"/>
-      <c r="L284" s="5" t="s">
+      <c r="L284" t="s">
         <v>8</v>
       </c>
-      <c r="M284" s="5"/>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
@@ -9571,11 +10029,9 @@
       <c r="I285" t="s">
         <v>162</v>
       </c>
-      <c r="K285" s="5"/>
-      <c r="L285" s="5" t="s">
+      <c r="L285" t="s">
         <v>9</v>
       </c>
-      <c r="M285" s="5"/>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
@@ -9605,9 +10061,6 @@
       <c r="I286" t="s">
         <v>162</v>
       </c>
-      <c r="K286" s="5"/>
-      <c r="L286" s="5"/>
-      <c r="M286" s="5"/>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
@@ -12451,7 +12904,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>165</v>
       </c>
@@ -12480,7 +12933,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>165</v>
       </c>
@@ -12509,7 +12962,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>165</v>
       </c>
@@ -12538,7 +12991,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>165</v>
       </c>
@@ -12567,7 +13020,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>165</v>
       </c>
@@ -12596,7 +13049,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>165</v>
       </c>
@@ -12625,7 +13078,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>165</v>
       </c>
@@ -12654,7 +13107,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>165</v>
       </c>
@@ -12683,7 +13136,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>165</v>
       </c>
@@ -12712,7 +13165,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>165</v>
       </c>
@@ -12741,7 +13194,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>165</v>
       </c>
@@ -12770,7 +13223,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>165</v>
       </c>
@@ -12799,7 +13252,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>165</v>
       </c>
@@ -12828,7 +13281,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>166</v>
       </c>
@@ -12856,15 +13309,14 @@
       <c r="I398" t="s">
         <v>162</v>
       </c>
-      <c r="K398" s="6" t="s">
+      <c r="K398" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L398" s="5" t="s">
+      <c r="L398" t="s">
         <v>7</v>
       </c>
-      <c r="M398" s="5"/>
-    </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>166</v>
       </c>
@@ -12892,13 +13344,11 @@
       <c r="I399" t="s">
         <v>162</v>
       </c>
-      <c r="K399" s="5"/>
-      <c r="L399" s="5" t="s">
+      <c r="L399" t="s">
         <v>8</v>
       </c>
-      <c r="M399" s="5"/>
-    </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>166</v>
       </c>
@@ -12926,13 +13376,11 @@
       <c r="I400" t="s">
         <v>162</v>
       </c>
-      <c r="K400" s="5"/>
-      <c r="L400" s="5" t="s">
+      <c r="L400" t="s">
         <v>9</v>
       </c>
-      <c r="M400" s="5"/>
-    </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>166</v>
       </c>
@@ -12960,11 +13408,8 @@
       <c r="I401" t="s">
         <v>162</v>
       </c>
-      <c r="K401" s="5"/>
-      <c r="L401" s="5"/>
-      <c r="M401" s="5"/>
-    </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>166</v>
       </c>
@@ -12992,15 +13437,14 @@
       <c r="I402" t="s">
         <v>162</v>
       </c>
-      <c r="K402" s="6" t="s">
+      <c r="K402" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L402" s="5" t="s">
+      <c r="L402" t="s">
         <v>7</v>
       </c>
-      <c r="M402" s="5"/>
-    </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>166</v>
       </c>
@@ -13028,13 +13472,11 @@
       <c r="I403" t="s">
         <v>162</v>
       </c>
-      <c r="K403" s="5"/>
-      <c r="L403" s="5" t="s">
+      <c r="L403" t="s">
         <v>8</v>
       </c>
-      <c r="M403" s="5"/>
-    </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>166</v>
       </c>
@@ -13062,13 +13504,11 @@
       <c r="I404" t="s">
         <v>162</v>
       </c>
-      <c r="K404" s="5"/>
-      <c r="L404" s="5" t="s">
+      <c r="L404" t="s">
         <v>9</v>
       </c>
-      <c r="M404" s="5"/>
-    </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>166</v>
       </c>
@@ -13097,7 +13537,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>166</v>
       </c>
@@ -13126,7 +13566,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>166</v>
       </c>
@@ -13155,7 +13595,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>166</v>
       </c>
@@ -13184,7 +13624,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>166</v>
       </c>
@@ -13213,7 +13653,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>166</v>
       </c>
@@ -13242,7 +13682,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>166</v>
       </c>
@@ -13271,7 +13711,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>166</v>
       </c>
@@ -13300,7 +13740,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>166</v>
       </c>
@@ -13329,7 +13769,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>166</v>
       </c>
@@ -13358,7 +13798,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>166</v>
       </c>
@@ -13387,7 +13827,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>166</v>
       </c>
@@ -16367,7 +16807,9 @@
       <c r="G518" t="s">
         <v>149</v>
       </c>
-      <c r="H518" s="4"/>
+      <c r="H518" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I518" t="s">
         <v>150</v>
       </c>
@@ -16394,7 +16836,9 @@
       <c r="G519" t="s">
         <v>149</v>
       </c>
-      <c r="H519" s="4"/>
+      <c r="H519" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I519" t="s">
         <v>150</v>
       </c>
@@ -16421,7 +16865,9 @@
       <c r="G520" t="s">
         <v>149</v>
       </c>
-      <c r="H520" s="4"/>
+      <c r="H520" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I520" t="s">
         <v>150</v>
       </c>
@@ -16448,7 +16894,9 @@
       <c r="G521" t="s">
         <v>149</v>
       </c>
-      <c r="H521" s="4"/>
+      <c r="H521" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I521" t="s">
         <v>150</v>
       </c>
@@ -16475,7 +16923,9 @@
       <c r="G522" t="s">
         <v>149</v>
       </c>
-      <c r="H522" s="4"/>
+      <c r="H522" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I522" t="s">
         <v>150</v>
       </c>
@@ -16502,7 +16952,9 @@
       <c r="G523" t="s">
         <v>149</v>
       </c>
-      <c r="H523" s="4"/>
+      <c r="H523" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I523" t="s">
         <v>150</v>
       </c>
@@ -16529,7 +16981,9 @@
       <c r="G524" t="s">
         <v>149</v>
       </c>
-      <c r="H524" s="4"/>
+      <c r="H524" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I524" t="s">
         <v>150</v>
       </c>
@@ -16556,7 +17010,9 @@
       <c r="G525" t="s">
         <v>149</v>
       </c>
-      <c r="H525" s="4"/>
+      <c r="H525" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I525" t="s">
         <v>150</v>
       </c>
@@ -16583,7 +17039,9 @@
       <c r="G526" t="s">
         <v>149</v>
       </c>
-      <c r="H526" s="4"/>
+      <c r="H526" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I526" t="s">
         <v>150</v>
       </c>
@@ -16610,7 +17068,9 @@
       <c r="G527" t="s">
         <v>149</v>
       </c>
-      <c r="H527" s="4"/>
+      <c r="H527" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I527" t="s">
         <v>150</v>
       </c>
@@ -16637,7 +17097,9 @@
       <c r="G528" t="s">
         <v>149</v>
       </c>
-      <c r="H528" s="4"/>
+      <c r="H528" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I528" t="s">
         <v>150</v>
       </c>
@@ -16664,7 +17126,9 @@
       <c r="G529" t="s">
         <v>149</v>
       </c>
-      <c r="H529" s="4"/>
+      <c r="H529" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I529" t="s">
         <v>150</v>
       </c>
@@ -16691,7 +17155,9 @@
       <c r="G530" t="s">
         <v>149</v>
       </c>
-      <c r="H530" s="4"/>
+      <c r="H530" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I530" t="s">
         <v>150</v>
       </c>
@@ -16718,7 +17184,9 @@
       <c r="G531" t="s">
         <v>149</v>
       </c>
-      <c r="H531" s="4"/>
+      <c r="H531" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I531" t="s">
         <v>150</v>
       </c>
@@ -16745,7 +17213,9 @@
       <c r="G532" t="s">
         <v>149</v>
       </c>
-      <c r="H532" s="4"/>
+      <c r="H532" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I532" t="s">
         <v>150</v>
       </c>
@@ -16772,7 +17242,9 @@
       <c r="G533" t="s">
         <v>149</v>
       </c>
-      <c r="H533" s="4"/>
+      <c r="H533" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I533" t="s">
         <v>150</v>
       </c>
@@ -16799,7 +17271,9 @@
       <c r="G534" t="s">
         <v>149</v>
       </c>
-      <c r="H534" s="4"/>
+      <c r="H534" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I534" t="s">
         <v>150</v>
       </c>
@@ -16826,7 +17300,9 @@
       <c r="G535" t="s">
         <v>149</v>
       </c>
-      <c r="H535" s="4"/>
+      <c r="H535" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I535" t="s">
         <v>150</v>
       </c>
@@ -16853,7 +17329,9 @@
       <c r="G536" t="s">
         <v>149</v>
       </c>
-      <c r="H536" s="4"/>
+      <c r="H536" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I536" t="s">
         <v>150</v>
       </c>
@@ -16880,7 +17358,9 @@
       <c r="G537" t="s">
         <v>149</v>
       </c>
-      <c r="H537" s="4"/>
+      <c r="H537" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I537" t="s">
         <v>150</v>
       </c>
@@ -16907,7 +17387,9 @@
       <c r="G538" t="s">
         <v>149</v>
       </c>
-      <c r="H538" s="4"/>
+      <c r="H538" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I538" t="s">
         <v>150</v>
       </c>
@@ -16934,7 +17416,9 @@
       <c r="G539" t="s">
         <v>149</v>
       </c>
-      <c r="H539" s="4"/>
+      <c r="H539" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I539" t="s">
         <v>150</v>
       </c>
@@ -16961,7 +17445,9 @@
       <c r="G540" t="s">
         <v>149</v>
       </c>
-      <c r="H540" s="4"/>
+      <c r="H540" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I540" t="s">
         <v>150</v>
       </c>
@@ -16988,7 +17474,9 @@
       <c r="G541" t="s">
         <v>149</v>
       </c>
-      <c r="H541" s="4"/>
+      <c r="H541" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I541" t="s">
         <v>150</v>
       </c>
@@ -17015,7 +17503,9 @@
       <c r="G542" t="s">
         <v>149</v>
       </c>
-      <c r="H542" s="4"/>
+      <c r="H542" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I542" t="s">
         <v>150</v>
       </c>
@@ -17042,7 +17532,9 @@
       <c r="G543" t="s">
         <v>149</v>
       </c>
-      <c r="H543" s="4"/>
+      <c r="H543" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I543" t="s">
         <v>150</v>
       </c>
@@ -17069,7 +17561,9 @@
       <c r="G544" t="s">
         <v>149</v>
       </c>
-      <c r="H544" s="4"/>
+      <c r="H544" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I544" t="s">
         <v>150</v>
       </c>
@@ -17096,7 +17590,9 @@
       <c r="G545" t="s">
         <v>149</v>
       </c>
-      <c r="H545" s="4"/>
+      <c r="H545" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I545" t="s">
         <v>150</v>
       </c>
@@ -17123,7 +17619,9 @@
       <c r="G546" t="s">
         <v>149</v>
       </c>
-      <c r="H546" s="4"/>
+      <c r="H546" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I546" t="s">
         <v>150</v>
       </c>
@@ -17150,7 +17648,9 @@
       <c r="G547" t="s">
         <v>149</v>
       </c>
-      <c r="H547" s="4"/>
+      <c r="H547" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I547" t="s">
         <v>150</v>
       </c>
@@ -17177,7 +17677,9 @@
       <c r="G548" t="s">
         <v>149</v>
       </c>
-      <c r="H548" s="4"/>
+      <c r="H548" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I548" t="s">
         <v>150</v>
       </c>
@@ -17204,7 +17706,9 @@
       <c r="G549" t="s">
         <v>149</v>
       </c>
-      <c r="H549" s="4"/>
+      <c r="H549" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I549" t="s">
         <v>150</v>
       </c>
@@ -17231,7 +17735,9 @@
       <c r="G550" t="s">
         <v>149</v>
       </c>
-      <c r="H550" s="4"/>
+      <c r="H550" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I550" t="s">
         <v>150</v>
       </c>
@@ -17258,7 +17764,9 @@
       <c r="G551" t="s">
         <v>149</v>
       </c>
-      <c r="H551" s="4"/>
+      <c r="H551" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I551" t="s">
         <v>150</v>
       </c>
@@ -17285,7 +17793,9 @@
       <c r="G552" t="s">
         <v>149</v>
       </c>
-      <c r="H552" s="4"/>
+      <c r="H552" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I552" t="s">
         <v>150</v>
       </c>
@@ -17312,7 +17822,9 @@
       <c r="G553" t="s">
         <v>149</v>
       </c>
-      <c r="H553" s="4"/>
+      <c r="H553" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I553" t="s">
         <v>150</v>
       </c>
@@ -17339,7 +17851,9 @@
       <c r="G554" t="s">
         <v>149</v>
       </c>
-      <c r="H554" s="4"/>
+      <c r="H554" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I554" t="s">
         <v>150</v>
       </c>
@@ -17366,7 +17880,9 @@
       <c r="G555" t="s">
         <v>149</v>
       </c>
-      <c r="H555" s="4"/>
+      <c r="H555" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I555" t="s">
         <v>150</v>
       </c>
@@ -17393,7 +17909,9 @@
       <c r="G556" t="s">
         <v>149</v>
       </c>
-      <c r="H556" s="4"/>
+      <c r="H556" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I556" t="s">
         <v>150</v>
       </c>
@@ -17420,7 +17938,9 @@
       <c r="G557" t="s">
         <v>149</v>
       </c>
-      <c r="H557" s="4"/>
+      <c r="H557" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I557" t="s">
         <v>150</v>
       </c>
@@ -17447,7 +17967,9 @@
       <c r="G558" t="s">
         <v>149</v>
       </c>
-      <c r="H558" s="4"/>
+      <c r="H558" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I558" t="s">
         <v>150</v>
       </c>
@@ -17474,7 +17996,9 @@
       <c r="G559" t="s">
         <v>149</v>
       </c>
-      <c r="H559" s="4"/>
+      <c r="H559" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I559" t="s">
         <v>150</v>
       </c>
@@ -17501,7 +18025,9 @@
       <c r="G560" t="s">
         <v>149</v>
       </c>
-      <c r="H560" s="4"/>
+      <c r="H560" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I560" t="s">
         <v>150</v>
       </c>
@@ -17528,7 +18054,9 @@
       <c r="G561" t="s">
         <v>149</v>
       </c>
-      <c r="H561" s="4"/>
+      <c r="H561" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I561" t="s">
         <v>150</v>
       </c>
@@ -17555,7 +18083,9 @@
       <c r="G562" t="s">
         <v>149</v>
       </c>
-      <c r="H562" s="4"/>
+      <c r="H562" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I562" t="s">
         <v>150</v>
       </c>
@@ -17582,7 +18112,9 @@
       <c r="G563" t="s">
         <v>149</v>
       </c>
-      <c r="H563" s="4"/>
+      <c r="H563" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I563" t="s">
         <v>150</v>
       </c>
@@ -17609,7 +18141,9 @@
       <c r="G564" t="s">
         <v>149</v>
       </c>
-      <c r="H564" s="4"/>
+      <c r="H564" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I564" t="s">
         <v>150</v>
       </c>
@@ -17636,7 +18170,9 @@
       <c r="G565" t="s">
         <v>149</v>
       </c>
-      <c r="H565" s="4"/>
+      <c r="H565" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I565" t="s">
         <v>150</v>
       </c>
@@ -17663,7 +18199,9 @@
       <c r="G566" t="s">
         <v>149</v>
       </c>
-      <c r="H566" s="4"/>
+      <c r="H566" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I566" t="s">
         <v>150</v>
       </c>
@@ -17690,7 +18228,9 @@
       <c r="G567" t="s">
         <v>149</v>
       </c>
-      <c r="H567" s="4"/>
+      <c r="H567" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I567" t="s">
         <v>150</v>
       </c>
@@ -17717,7 +18257,9 @@
       <c r="G568" t="s">
         <v>149</v>
       </c>
-      <c r="H568" s="4"/>
+      <c r="H568" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I568" t="s">
         <v>150</v>
       </c>
@@ -17744,7 +18286,9 @@
       <c r="G569" t="s">
         <v>149</v>
       </c>
-      <c r="H569" s="4"/>
+      <c r="H569" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I569" t="s">
         <v>150</v>
       </c>
@@ -17771,7 +18315,9 @@
       <c r="G570" t="s">
         <v>149</v>
       </c>
-      <c r="H570" s="4"/>
+      <c r="H570" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I570" t="s">
         <v>150</v>
       </c>
@@ -17798,7 +18344,9 @@
       <c r="G571" t="s">
         <v>149</v>
       </c>
-      <c r="H571" s="4"/>
+      <c r="H571" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I571" t="s">
         <v>150</v>
       </c>
@@ -17825,7 +18373,9 @@
       <c r="G572" t="s">
         <v>149</v>
       </c>
-      <c r="H572" s="4"/>
+      <c r="H572" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I572" t="s">
         <v>150</v>
       </c>
@@ -17852,7 +18402,9 @@
       <c r="G573" t="s">
         <v>149</v>
       </c>
-      <c r="H573" s="4"/>
+      <c r="H573" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I573" t="s">
         <v>150</v>
       </c>
@@ -17879,7 +18431,9 @@
       <c r="G574" t="s">
         <v>149</v>
       </c>
-      <c r="H574" s="4"/>
+      <c r="H574" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I574" t="s">
         <v>150</v>
       </c>
@@ -17906,7 +18460,9 @@
       <c r="G575" t="s">
         <v>149</v>
       </c>
-      <c r="H575" s="4"/>
+      <c r="H575" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I575" t="s">
         <v>150</v>
       </c>
@@ -17933,7 +18489,9 @@
       <c r="G576" t="s">
         <v>149</v>
       </c>
-      <c r="H576" s="4"/>
+      <c r="H576" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I576" t="s">
         <v>150</v>
       </c>
@@ -17960,7 +18518,9 @@
       <c r="G577" t="s">
         <v>149</v>
       </c>
-      <c r="H577" s="4"/>
+      <c r="H577" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="I577" t="s">
         <v>150</v>
       </c>
